--- a/data/trans_camb/IMC_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>6.435600040480965</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.599759546555513</v>
+        <v>5.599759546555511</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.058787395547211</v>
+        <v>4.11145565162735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.654712320108989</v>
+        <v>4.581349784175132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.200553370736293</v>
+        <v>3.085537903947274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.266076932649003</v>
+        <v>2.087527323848896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03563714889479199</v>
+        <v>-0.2260356977237068</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06480021825929989</v>
+        <v>0.5056303658690874</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.238074091024675</v>
+        <v>4.166939278820085</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.717958746179396</v>
+        <v>3.848928813739855</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.155682448840797</v>
+        <v>3.044278346322058</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.74354690990263</v>
+        <v>12.36801067054495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.57851690779712</v>
+        <v>12.57001569418314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.68926173350735</v>
+        <v>10.69548183439788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.6230454577725</v>
+        <v>10.62234709575734</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.348826734509879</v>
+        <v>8.158346761846836</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.724566209329768</v>
+        <v>7.740234399728478</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.00207867623302</v>
+        <v>10.14483331783701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.475595939908747</v>
+        <v>9.658380357043999</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.294791398037402</v>
+        <v>8.38767381499091</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.4746752924460809</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.413025589481835</v>
+        <v>0.4130255894818348</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2958765381997266</v>
+        <v>0.3017142051032057</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3441381561968127</v>
+        <v>0.3444330094039558</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2202623273046569</v>
+        <v>0.2295792358777131</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1316552314215484</v>
+        <v>0.1173871289222864</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.00161465417030115</v>
+        <v>-0.0147574920690519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003509906652215488</v>
+        <v>0.02244031586104042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3015593525166828</v>
+        <v>0.2710652807037687</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2517995966967489</v>
+        <v>0.2603160318304518</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2084811177636596</v>
+        <v>0.1948882442434109</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.183566804493619</v>
+        <v>1.261350256673609</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.231579733475845</v>
+        <v>1.327105804710953</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.074857846584183</v>
+        <v>1.140106641198576</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.799023071228907</v>
+        <v>0.7946807666287115</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6127955240692277</v>
+        <v>0.6009843928430623</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5640118920225681</v>
+        <v>0.574503256676455</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8146072888916042</v>
+        <v>0.8210605221259473</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7872797377847893</v>
+        <v>0.7894733018959837</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6812278078151983</v>
+        <v>0.6888022267343611</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.001658147479573</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.05259779291144351</v>
+        <v>-0.05259779291144073</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.204494711428421</v>
@@ -878,7 +878,7 @@
         <v>4.176529374399629</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.611996626456443</v>
+        <v>0.6119966264564403</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7392799842610774</v>
+        <v>-0.5056292532274085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01120611703116018</v>
+        <v>-0.03072660308789416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.863504460768866</v>
+        <v>-2.009346164324367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.920569838125498</v>
+        <v>4.007158057254226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.275719953072171</v>
+        <v>1.663751918553425</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.979526912526287</v>
+        <v>-3.025112990830289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.76068164861982</v>
+        <v>2.68300542134581</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.869177992172845</v>
+        <v>1.778519563863627</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.632163643814132</v>
+        <v>-1.721891866312163</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.12450053879101</v>
+        <v>6.335867854551138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.796488380979109</v>
+        <v>7.067694966622162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.8268473595088</v>
+        <v>4.421271829589339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.50426609838323</v>
+        <v>11.54936203463557</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.294249825344759</v>
+        <v>8.89519667361014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.832139771279668</v>
+        <v>2.779884970474186</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.638364147828735</v>
+        <v>7.930535065225241</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.579396964463201</v>
+        <v>6.818727068443317</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.921444679938422</v>
+        <v>2.795990671204823</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3311614187874004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.003482517039757491</v>
+        <v>-0.003482517039757308</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3495342733367539</v>
@@ -983,7 +983,7 @@
         <v>0.2804960406136556</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.04110174147036209</v>
+        <v>0.0411017414703619</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04480103370543904</v>
+        <v>-0.03630555400369667</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.001195914929355349</v>
+        <v>-0.00356416016879378</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1152451707091717</v>
+        <v>-0.1281347012921192</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2294864369076099</v>
+        <v>0.2384677516748245</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0715772477052421</v>
+        <v>0.09562368955430271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1768150882435025</v>
+        <v>-0.1782175304404683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1705195227223464</v>
+        <v>0.1683551426181116</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.11474088716493</v>
+        <v>0.1038394426546357</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1023078246619882</v>
+        <v>-0.1090458104155085</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4628478566086746</v>
+        <v>0.4800755625621178</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5395796903492502</v>
+        <v>0.547621029516855</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.368128124303591</v>
+        <v>0.3384098351135623</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8570628973587153</v>
+        <v>0.8656532313096404</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6112916599431236</v>
+        <v>0.6535467632759951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2162518475328192</v>
+        <v>0.2105784169178578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5604340051182493</v>
+        <v>0.5906243555232693</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.479933162693537</v>
+        <v>0.5022486183703562</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2174610696273523</v>
+        <v>0.2048320356896783</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.842589102647732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.606431722570879</v>
+        <v>6.606431722570882</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.090317865851841</v>
@@ -1092,7 +1092,7 @@
         <v>3.0480313925623</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.259745583225449</v>
+        <v>4.259745583225446</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2595870120981433</v>
+        <v>-0.04839990193080069</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8607598740182709</v>
+        <v>1.210733457581126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.930689643526286</v>
+        <v>2.752053759782833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.048094313204004</v>
+        <v>2.050891869080959</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.443710439776863</v>
+        <v>-2.578613723597666</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.629924435109302</v>
+        <v>-1.582711641535641</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.100920210289756</v>
+        <v>2.109734120338182</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.112435706439254</v>
+        <v>0.4673343792111334</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.421496508605197</v>
+        <v>1.409418380562729</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.460020952605577</v>
+        <v>7.590242470110893</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.685862247622611</v>
+        <v>8.528423915893818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.5484249131451</v>
+        <v>10.68028365366175</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.18057137216268</v>
+        <v>10.06798402868574</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.152567265601574</v>
+        <v>5.187612606543558</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.551419724088067</v>
+        <v>5.832902378089833</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.65518758645459</v>
+        <v>7.589592061434239</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.567808456930025</v>
+        <v>5.685164907706353</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.904906117073449</v>
+        <v>6.837509253857034</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.44566918056838</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6079976950076769</v>
+        <v>0.6079976950076771</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4270357429330077</v>
@@ -1197,7 +1197,7 @@
         <v>0.2424804253086835</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3388760769484696</v>
+        <v>0.3388760769484693</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02466236377728696</v>
+        <v>-0.009835905595367025</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05747692575983036</v>
+        <v>0.0746054086787107</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2045653345361333</v>
+        <v>0.2180637266139616</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1330311563115671</v>
+        <v>0.1243097888495646</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1615920762125275</v>
+        <v>-0.1649175252064772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.106050372755788</v>
+        <v>-0.09666550909872369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1454496591138222</v>
+        <v>0.1497832451629484</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.007481136241804587</v>
+        <v>0.02368081016526936</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09365288846325291</v>
+        <v>0.1027116953242497</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8142232805240267</v>
+        <v>0.8328089134491414</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9567405249508315</v>
+        <v>0.9475090344400388</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.142825782494889</v>
+        <v>1.22238390526249</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8309668494142386</v>
+        <v>0.8191579080688421</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4200626128085064</v>
+        <v>0.408033190911489</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.444229349865036</v>
+        <v>0.4733482886435081</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6785509048467347</v>
+        <v>0.6687673582150782</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4758023462091384</v>
+        <v>0.49306206763088</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6102694911394266</v>
+        <v>0.6111851455240848</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>4.145698508235077</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.517172404517574</v>
+        <v>3.517172404517571</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.310147758474869</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6941985575268326</v>
+        <v>0.7354282513729778</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2971432051140819</v>
+        <v>0.6692855031472894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.490357674412124</v>
+        <v>2.810238333361039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.109913113920816</v>
+        <v>1.282875987943633</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8473353113213354</v>
+        <v>0.7878025651950575</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6154797831210824</v>
+        <v>0.2238829276379125</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.959646509895713</v>
+        <v>1.930556314763633</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.784572879402857</v>
+        <v>1.783492563691075</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.473131363395869</v>
+        <v>2.453497350246367</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.088145658015417</v>
+        <v>7.018300455975613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.68165403868707</v>
+        <v>6.694953556424134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.239131198981211</v>
+        <v>8.89017373515008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.824030767827693</v>
+        <v>8.126832171497684</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.502518847174749</v>
+        <v>7.876719722747175</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.558687880586456</v>
+        <v>6.303901871393257</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.612533828243594</v>
+        <v>6.591274892694313</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.490889584272029</v>
+        <v>6.285126240682539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.580918983247422</v>
+        <v>6.745181492521174</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2792990673798931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2369547545352644</v>
+        <v>0.2369547545352642</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3317775416869703</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04503318976172285</v>
+        <v>0.0607668845967571</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01218043829285759</v>
+        <v>0.05180981936183212</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2081631269741657</v>
+        <v>0.218228027989679</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.063528820222544</v>
+        <v>0.07106062772848844</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04887743026421036</v>
+        <v>0.03955746630330773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03853743622100836</v>
+        <v>0.01937844299784939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1470561487750081</v>
+        <v>0.1303788443151921</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1296648074205272</v>
+        <v>0.1291316434992075</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1876959340423621</v>
+        <v>0.1735010276079877</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7312686372356785</v>
+        <v>0.7410424357001157</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6711194655465258</v>
+        <v>0.7096575526786599</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9576636388503648</v>
+        <v>0.904428203780443</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5991859118305995</v>
+        <v>0.6212439159164768</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5466276620527102</v>
+        <v>0.588850327451128</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5028939022290098</v>
+        <v>0.4889402400499732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.564168135322777</v>
+        <v>0.5570776950174328</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5496472104992915</v>
+        <v>0.531306855513038</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5589027575615398</v>
+        <v>0.5640539616561729</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>4.275721157986381</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.533640352704837</v>
+        <v>3.533640352704831</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.514526633017914</v>
+        <v>2.54110746465784</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.141667491244544</v>
+        <v>3.161078775353846</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.134136776459401</v>
+        <v>2.97809138124451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.046401990664843</v>
+        <v>4.323610023408964</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.05480264434186</v>
+        <v>2.056155728389951</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6728477291334729</v>
+        <v>0.6704999363431697</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.89905533279656</v>
+        <v>3.88850814562309</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.965458408156602</v>
+        <v>3.007435486287082</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.310561871322748</v>
+        <v>2.271462584534888</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.170389399564115</v>
+        <v>6.14285701792617</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.490439398671017</v>
+        <v>6.720550383667538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.6643729759952</v>
+        <v>6.516618516899306</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.922147993249423</v>
+        <v>8.022244942174432</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.730316037188698</v>
+        <v>5.707746809190362</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.827033278933524</v>
+        <v>3.907617957349591</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.611119122770141</v>
+        <v>6.449873881745809</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.594100152849929</v>
+        <v>5.470949462109291</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.756371642159942</v>
+        <v>4.744521324830817</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.3149960192242685</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2603262942891397</v>
+        <v>0.2603262942891392</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1881193196008929</v>
+        <v>0.1891410326471307</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2408106785054364</v>
+        <v>0.2504400558226751</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2444110002021452</v>
+        <v>0.2299786429630817</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2566542104091246</v>
+        <v>0.2705247408466147</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1286164399837829</v>
+        <v>0.1310313100546361</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04324937362791972</v>
+        <v>0.04362661070942792</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2755166626066136</v>
+        <v>0.274231335701184</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2094883514325572</v>
+        <v>0.2094640174854442</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1632714114653692</v>
+        <v>0.1591311238070864</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5336561163842779</v>
+        <v>0.5354528892778747</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5668112067916181</v>
+        <v>0.6022048123110388</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5849129934277914</v>
+        <v>0.5780744511310137</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5599784374872564</v>
+        <v>0.5636948399841708</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4048816944934248</v>
+        <v>0.4108182986089896</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2755685158393713</v>
+        <v>0.2863602488402434</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5100042748376222</v>
+        <v>0.4951833852744326</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4348872154087809</v>
+        <v>0.4193347248370475</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3698366065599244</v>
+        <v>0.3652788258352332</v>
       </c>
     </row>
     <row r="34">
